--- a/fx_data.xlsx
+++ b/fx_data.xlsx
@@ -34805,13 +34805,13 @@
     </row>
     <row r="3125">
       <c r="A3125" t="n">
-        <v>144.0670013427734</v>
+        <v>144.7640075683594</v>
       </c>
       <c r="B3125" t="n">
-        <v>1.158211708068848</v>
+        <v>1.156470417976379</v>
       </c>
       <c r="C3125" t="n">
-        <v>1.358511090278625</v>
+        <v>1.358068346977234</v>
       </c>
     </row>
   </sheetData>
